--- a/data/latino/autid_ninguno.xlsx
+++ b/data/latino/autid_ninguno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Trabajo\UMAD\Piso I\Piso-I-OP\data\latino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F441C9-4B5D-473D-A1CE-808AFC6C1647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AB6CA-F7C9-40B2-8D89-40A7F53F1AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A2D326B-0349-4B36-AED4-2F76464FCD02}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t xml:space="preserve"> Uruguay</t>
   </si>
   <si>
-    <t xml:space="preserve"> Venezuela_x000D_</t>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Total América Latina</t>
@@ -480,7 +480,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,8 +694,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
